--- a/artfynd/A 56180-2020.xlsx
+++ b/artfynd/A 56180-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +801,154 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112147265</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57136</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100041</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hasselsnok</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Coronella austriaca</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Laurenti, 1768</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>vilande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Västrum, blockskog, Sm</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>594266.6211948132</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6391082.228866529</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Västervik</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Västrum</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>18:15</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ca 50cm.</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Blandskog på blockmark</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Jimmy Werodin</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Jimmy Werodin</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 56180-2020.xlsx
+++ b/artfynd/A 56180-2020.xlsx
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>594266.6211948132</v>
+        <v>594267</v>
       </c>
       <c r="R3" t="n">
-        <v>6391082.228866529</v>
+        <v>6391082</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 56180-2020.xlsx
+++ b/artfynd/A 56180-2020.xlsx
@@ -806,7 +806,7 @@
         <v>112147265</v>
       </c>
       <c r="B3" t="n">
-        <v>57136</v>
+        <v>57168</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
